--- a/apps/load_data/2023/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0223\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9132E010-8813-46BF-BAD3-379C49894DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6CBCD-0349-4B99-A0DD-F9971AB7ADB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$285</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$285</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12113" uniqueCount="3333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12093" uniqueCount="3330">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6820,9 +6821,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8002,9 +8000,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8306,9 +8301,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10027,7 +10019,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10867,10 +10859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD243" sqref="AC171:AD243"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42584,12 +42578,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42642,16 +42631,16 @@
         <v>23</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2268</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>117</v>
@@ -42666,13 +42655,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -42693,19 +42682,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>129</v>
@@ -42743,16 +42732,16 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>2277</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42784,12 +42773,7 @@
       <c r="AB172" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42836,7 +42820,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BB172" s="1">
         <v>2</v>
@@ -42845,13 +42829,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BN172" s="1" t="s">
         <v>117</v>
@@ -42863,13 +42847,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -42893,16 +42877,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1975</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>129</v>
@@ -42937,16 +42921,16 @@
         <v>95</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -42969,12 +42953,7 @@
       <c r="AB173" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43021,7 +43000,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43030,7 +43009,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -43057,7 +43036,7 @@
         <v>111</v>
       </c>
       <c r="CA173" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="CB173" s="1" t="s">
         <v>123</v>
@@ -43066,10 +43045,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43110,13 +43089,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2295</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2296</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43145,12 +43124,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43200,7 +43174,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BB174" s="1">
         <v>2</v>
@@ -43209,13 +43183,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>2209</v>
@@ -43227,7 +43201,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43245,16 +43219,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>2212</v>
@@ -43295,13 +43269,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43333,12 +43307,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43388,7 +43357,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BB175" s="1">
         <v>2</v>
@@ -43397,13 +43366,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>1822</v>
@@ -43415,7 +43384,7 @@
         <v>106</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43436,13 +43405,13 @@
         <v>673</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>1826</v>
@@ -43483,13 +43452,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43518,12 +43487,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43573,7 +43537,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BB176" s="1">
         <v>2</v>
@@ -43582,16 +43546,16 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="BN176" s="1" t="s">
         <v>117</v>
@@ -43600,7 +43564,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43618,19 +43582,19 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="CH176" s="1" t="s">
+      <c r="CI176" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="CI176" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="CJ176" s="1" t="s">
         <v>129</v>
@@ -43668,13 +43632,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43712,12 +43676,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43764,7 +43723,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BB177" s="1">
         <v>2</v>
@@ -43773,16 +43732,16 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>117</v>
@@ -43794,13 +43753,13 @@
         <v>118</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -43818,19 +43777,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>129</v>
@@ -43868,13 +43827,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -43903,12 +43862,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -43958,7 +43912,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BB178" s="1">
         <v>2</v>
@@ -43967,13 +43921,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>580</v>
@@ -43985,7 +43939,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -44003,16 +43957,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>587</v>
@@ -44053,13 +44007,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44088,12 +44042,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44143,7 +44092,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BB179" s="1">
         <v>2</v>
@@ -44152,16 +44101,16 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BI179" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>117</v>
@@ -44173,7 +44122,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44191,19 +44140,19 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="CH179" s="1" t="s">
-        <v>2361</v>
-      </c>
       <c r="CI179" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CJ179" s="1" t="s">
         <v>129</v>
@@ -44235,19 +44184,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44282,12 +44231,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44337,7 +44281,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BB180" s="1">
         <v>2</v>
@@ -44346,13 +44290,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44361,7 +44305,7 @@
         <v>106</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44373,7 +44317,7 @@
         <v>111</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>123</v>
@@ -44382,16 +44326,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>129</v>
@@ -44432,13 +44376,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44467,12 +44411,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44519,7 +44458,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BB181" s="1">
         <v>2</v>
@@ -44528,16 +44467,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>117</v>
@@ -44549,13 +44488,13 @@
         <v>118</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44573,19 +44512,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1781</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>129</v>
@@ -44623,13 +44562,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2390</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44710,7 +44649,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BB182" s="1">
         <v>2</v>
@@ -44719,13 +44658,13 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1113</v>
@@ -44740,7 +44679,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44758,16 +44697,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>418</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1119</v>
@@ -44808,13 +44747,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -44889,7 +44828,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BB183" s="1">
         <v>2</v>
@@ -44898,16 +44837,16 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>117</v>
@@ -44919,13 +44858,13 @@
         <v>229</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -44943,19 +44882,19 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>129</v>
@@ -44993,13 +44932,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2414</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45074,7 +45013,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BB184" s="1">
         <v>2</v>
@@ -45083,16 +45022,16 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -45104,13 +45043,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -45128,19 +45067,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>129</v>
@@ -45178,13 +45117,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45262,7 +45201,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB185" s="1">
         <v>2</v>
@@ -45271,13 +45210,13 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>117</v>
@@ -45286,7 +45225,7 @@
         <v>106</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45304,16 +45243,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>865</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>129</v>
@@ -45354,13 +45293,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45396,10 +45335,10 @@
         <v>107</v>
       </c>
       <c r="AG186" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AH186" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="AH186" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="AI186" s="1" t="s">
         <v>102</v>
@@ -45441,7 +45380,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BB186" s="1">
         <v>2</v>
@@ -45450,13 +45389,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45465,7 +45404,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45486,13 +45425,13 @@
         <v>1572</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45533,13 +45472,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45617,7 +45556,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BB187" s="1">
         <v>2</v>
@@ -45626,16 +45565,16 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45647,13 +45586,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45677,13 +45616,13 @@
         <v>948</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>129</v>
@@ -45721,13 +45660,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45805,7 +45744,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BB188" s="1">
         <v>2</v>
@@ -45814,16 +45753,16 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BI188" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BN188" s="1" t="s">
         <v>117</v>
@@ -45832,7 +45771,7 @@
         <v>106</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -45850,19 +45789,19 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CH188" s="1" t="s">
-        <v>2470</v>
-      </c>
       <c r="CI188" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CJ188" s="1" t="s">
         <v>129</v>
@@ -45900,13 +45839,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -45945,7 +45884,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>107</v>
@@ -45999,16 +45938,16 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -46020,13 +45959,13 @@
         <v>229</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -46047,7 +45986,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>299</v>
@@ -46056,10 +45995,10 @@
         <v>1604</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -46097,16 +46036,16 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46190,13 +46129,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>117</v>
@@ -46208,13 +46147,13 @@
         <v>118</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>121</v>
@@ -46238,10 +46177,10 @@
         <v>658</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>129</v>
@@ -46282,13 +46221,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46372,13 +46311,13 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>117</v>
@@ -46387,7 +46326,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46405,16 +46344,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46455,13 +46394,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46548,16 +46487,16 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BI192" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>117</v>
@@ -46569,7 +46508,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46587,19 +46526,19 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="CH192" s="1" t="s">
-        <v>2511</v>
-      </c>
       <c r="CI192" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>129</v>
@@ -46637,13 +46576,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46724,16 +46663,16 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>117</v>
@@ -46745,13 +46684,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46772,16 +46711,16 @@
         <v>502</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>129</v>
@@ -46819,13 +46758,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -46909,16 +46848,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>117</v>
@@ -46930,13 +46869,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -46957,16 +46896,16 @@
         <v>948</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>129</v>
@@ -47004,13 +46943,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47094,13 +47033,13 @@
         <v>23</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>1113</v>
@@ -47115,13 +47054,13 @@
         <v>118</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -47139,16 +47078,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>1119</v>
@@ -47189,13 +47128,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47276,16 +47215,16 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47297,13 +47236,13 @@
         <v>118</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>121</v>
@@ -47321,19 +47260,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>129</v>
@@ -47365,16 +47304,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47452,7 +47391,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>117</v>
@@ -47467,7 +47406,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>123</v>
@@ -47476,7 +47415,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47520,13 +47459,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47604,7 +47543,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB198" s="1">
         <v>2</v>
@@ -47613,13 +47552,13 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>117</v>
@@ -47628,7 +47567,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47646,16 +47585,16 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>129</v>
@@ -47696,13 +47635,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47780,7 +47719,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BB199" s="1">
         <v>2</v>
@@ -47789,13 +47728,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>375</v>
@@ -47807,7 +47746,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47825,16 +47764,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>382</v>
@@ -47875,13 +47814,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -47959,7 +47898,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BB200" s="1">
         <v>2</v>
@@ -47968,13 +47907,13 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -47983,7 +47922,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -48004,13 +47943,13 @@
         <v>1104</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>129</v>
@@ -48051,13 +47990,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48135,7 +48074,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48144,13 +48083,13 @@
         <v>23</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1822</v>
@@ -48168,13 +48107,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>121</v>
@@ -48192,16 +48131,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1826</v>
@@ -48242,13 +48181,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48332,16 +48271,16 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>117</v>
@@ -48353,13 +48292,13 @@
         <v>229</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>121</v>
@@ -48377,19 +48316,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>129</v>
@@ -48427,10 +48366,10 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48457,10 +48396,10 @@
         <v>107</v>
       </c>
       <c r="AG203" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AH203" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="AH203" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="AJ203" s="1" t="s">
         <v>110</v>
@@ -48502,7 +48441,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48511,7 +48450,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>117</v>
@@ -48538,7 +48477,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1816</v>
@@ -48582,13 +48521,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48663,7 +48602,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -48672,13 +48611,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>2209</v>
@@ -48693,13 +48632,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48717,16 +48656,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>2212</v>
@@ -48767,13 +48706,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48851,7 +48790,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BB205" s="1">
         <v>2</v>
@@ -48860,13 +48799,13 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2229</v>
@@ -48878,7 +48817,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48896,16 +48835,16 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>2234</v>
@@ -48946,13 +48885,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49039,13 +48978,13 @@
         <v>23</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>117</v>
@@ -49054,7 +48993,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -49072,16 +49011,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>129</v>
@@ -49122,13 +49061,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49163,12 +49102,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49218,7 +49152,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="BB207" s="1">
         <v>2</v>
@@ -49227,16 +49161,16 @@
         <v>23</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49245,7 +49179,7 @@
         <v>106</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49269,16 +49203,16 @@
         <v>1156</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>129</v>
@@ -49298,7 +49232,7 @@
         <v>1419</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49310,16 +49244,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49343,7 +49277,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>371</v>
@@ -49388,7 +49322,7 @@
         <v>0</v>
       </c>
       <c r="CA208" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CB208" s="1" t="s">
         <v>123</v>
@@ -49397,10 +49331,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49417,7 +49351,7 @@
         <v>1419</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49429,16 +49363,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49465,7 +49399,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>371</v>
@@ -49510,7 +49444,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>123</v>
@@ -49519,10 +49453,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49557,10 +49491,10 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49584,7 +49518,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>371</v>
@@ -49638,10 +49572,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49658,7 +49592,7 @@
         <v>185</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49670,16 +49604,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49748,7 +49682,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>123</v>
@@ -49757,10 +49691,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -49777,7 +49711,7 @@
         <v>1419</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -49789,16 +49723,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -49867,7 +49801,7 @@
         <v>0</v>
       </c>
       <c r="CA212" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CB212" s="1" t="s">
         <v>123</v>
@@ -49876,10 +49810,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -49896,7 +49830,7 @@
         <v>185</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -49908,16 +49842,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -49986,7 +49920,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>123</v>
@@ -49995,10 +49929,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50033,10 +49967,10 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50114,10 +50048,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50152,13 +50086,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50187,12 +50121,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50245,13 +50174,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>375</v>
@@ -50266,13 +50195,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>121</v>
@@ -50290,16 +50219,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2703</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>382</v>
@@ -50340,13 +50269,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2705</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2706</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50375,12 +50304,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50436,13 +50360,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50451,7 +50375,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>121</v>
@@ -50469,16 +50393,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>129</v>
@@ -50519,13 +50443,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50557,12 +50481,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50615,13 +50534,13 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1113</v>
@@ -50636,13 +50555,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -50660,16 +50579,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>999</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1119</v>
@@ -50710,13 +50629,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -50745,12 +50664,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -50806,16 +50720,16 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="BI218" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>117</v>
@@ -50824,7 +50738,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -50842,19 +50756,19 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="CF218" s="1" t="s">
+      <c r="CI218" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="CI218" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="CJ218" s="1" t="s">
         <v>129</v>
@@ -50892,13 +50806,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -50927,12 +50841,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -50985,16 +50894,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
@@ -51006,13 +50915,13 @@
         <v>229</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -51033,16 +50942,16 @@
         <v>751</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="CF219" s="1" t="s">
+      <c r="CI219" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="CI219" s="1" t="s">
-        <v>2747</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>129</v>
@@ -51080,13 +50989,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2748</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51115,12 +51024,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51176,13 +51080,13 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>2209</v>
@@ -51194,7 +51098,7 @@
         <v>106</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>121</v>
@@ -51212,16 +51116,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>2212</v>
@@ -51262,13 +51166,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51297,12 +51201,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2761</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51349,7 +51248,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="BB221" s="1">
         <v>2</v>
@@ -51358,16 +51257,16 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51379,13 +51278,13 @@
         <v>229</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>121</v>
@@ -51403,19 +51302,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>129</v>
@@ -51453,13 +51352,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51495,7 +51394,7 @@
         <v>107</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2117</v>
@@ -51546,7 +51445,7 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
@@ -51555,7 +51454,7 @@
         <v>117</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51573,13 +51472,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>129</v>
@@ -51623,13 +51522,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51716,13 +51615,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
@@ -51731,7 +51630,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -51752,13 +51651,13 @@
         <v>332</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -51799,13 +51698,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -51889,16 +51788,16 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>117</v>
@@ -51910,13 +51809,13 @@
         <v>229</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -51934,19 +51833,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>418</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>129</v>
@@ -51984,16 +51883,16 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52083,13 +51982,13 @@
         <v>23</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -52098,7 +51997,7 @@
         <v>106</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -52128,10 +52027,10 @@
         <v>1218</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>129</v>
@@ -52172,13 +52071,13 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52265,13 +52164,13 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52286,13 +52185,13 @@
         <v>160</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="BT226" s="3">
         <v>5347</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>121</v>
@@ -52316,16 +52215,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="CE226" s="1" t="s">
         <v>446</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>129</v>
@@ -52366,10 +52265,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52447,7 +52346,7 @@
         <v>22</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52477,7 +52376,7 @@
         <v>102</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>129</v>
@@ -52521,10 +52420,10 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
@@ -52554,10 +52453,10 @@
         <v>107</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="AH228" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ228" s="1" t="s">
         <v>110</v>
@@ -52605,7 +52504,7 @@
         <v>21</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52635,7 +52534,7 @@
         <v>93</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52679,10 +52578,10 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
@@ -52712,10 +52611,10 @@
         <v>107</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>110</v>
@@ -52763,7 +52662,7 @@
         <v>21</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -52790,7 +52689,7 @@
         <v>93</v>
       </c>
       <c r="CD229" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -52834,13 +52733,13 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
@@ -52930,7 +52829,7 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>114</v>
@@ -52939,7 +52838,7 @@
         <v>117</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -52960,13 +52859,13 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53010,13 +52909,13 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -53103,13 +53002,13 @@
         <v>23</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -53121,13 +53020,13 @@
         <v>118</v>
       </c>
       <c r="BS231" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BT231" s="3">
         <v>35278</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -53148,16 +53047,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="CE231" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="CF231" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CH231" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2845</v>
-      </c>
-      <c r="CF231" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="CH231" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53180,7 +53079,7 @@
         <v>185</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>93</v>
@@ -53192,16 +53091,16 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53228,10 +53127,10 @@
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AH232" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ232" s="1" t="s">
         <v>110</v>
@@ -53279,7 +53178,7 @@
         <v>22</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
@@ -53294,7 +53193,7 @@
         <v>111</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>123</v>
@@ -53303,7 +53202,7 @@
         <v>93</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53347,13 +53246,13 @@
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>101</v>
@@ -53443,7 +53342,7 @@
         <v>23</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BG233" s="1" t="s">
         <v>114</v>
@@ -53452,7 +53351,7 @@
         <v>117</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>121</v>
@@ -53473,13 +53372,13 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>447</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>129</v>
@@ -53523,10 +53422,10 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53556,10 +53455,10 @@
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AH234" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ234" s="1" t="s">
         <v>110</v>
@@ -53604,7 +53503,7 @@
         <v>22</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -53631,7 +53530,7 @@
         <v>93</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>129</v>
@@ -53675,13 +53574,13 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -53765,16 +53664,16 @@
         <v>23</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BG235" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -53783,13 +53682,13 @@
         <v>103</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BT235" s="3">
         <v>300</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -53810,19 +53709,19 @@
         <v>102</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE235" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="CF235" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="CH235" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="CI235" s="1" t="s">
         <v>2871</v>
-      </c>
-      <c r="CF235" s="1" t="s">
-        <v>2872</v>
-      </c>
-      <c r="CH235" s="1" t="s">
-        <v>2873</v>
-      </c>
-      <c r="CI235" s="1" t="s">
-        <v>2874</v>
       </c>
       <c r="CJ235" s="1" t="s">
         <v>129</v>
@@ -53842,7 +53741,7 @@
         <v>185</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>93</v>
@@ -53854,22 +53753,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="N236" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="Q236" s="3">
         <v>17060</v>
@@ -53902,13 +53801,13 @@
         <v>42628</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>136</v>
@@ -53953,22 +53852,22 @@
         <v>102</v>
       </c>
       <c r="AZ236" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="BB236" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC236" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD236" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="BH236" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="BB236" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC236" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD236" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="BH236" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -53977,7 +53876,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -54001,13 +53900,13 @@
         <v>125</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CI236" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="CJ236" s="1" t="s">
         <v>129</v>
@@ -54021,13 +53920,13 @@
         <v>89</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>102</v>
@@ -54039,22 +53938,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="Q237" s="3">
         <v>26864</v>
@@ -54087,7 +53986,7 @@
         <v>42735</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54141,10 +54040,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54156,13 +54055,13 @@
         <v>229</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BT237" s="3">
         <v>102</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54174,7 +54073,7 @@
         <v>111</v>
       </c>
       <c r="CA237" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="CB237" s="1" t="s">
         <v>123</v>
@@ -54183,16 +54082,16 @@
         <v>102</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>129</v>
@@ -54233,16 +54132,16 @@
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="Q238" s="3">
         <v>25379</v>
@@ -54272,7 +54171,7 @@
         <v>39800</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>243</v>
@@ -54326,10 +54225,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
@@ -54341,13 +54240,13 @@
         <v>1622</v>
       </c>
       <c r="BS238" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BT238" s="3">
         <v>35915</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54377,10 +54276,10 @@
         <v>635</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>129</v>
@@ -54403,7 +54302,7 @@
         <v>91</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54415,22 +54314,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="Q239" s="3">
         <v>17470</v>
@@ -54460,7 +54359,7 @@
         <v>43100</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54517,10 +54416,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54529,7 +54428,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54553,16 +54452,16 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>129</v>
@@ -54585,7 +54484,7 @@
         <v>91</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>102</v>
@@ -54597,22 +54496,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="Q240" s="3">
         <v>23356</v>
@@ -54639,7 +54538,7 @@
         <v>43105</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>107</v>
@@ -54693,10 +54592,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -54708,13 +54607,13 @@
         <v>103</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BT240" s="3">
         <v>34412</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -54723,7 +54622,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>123</v>
@@ -54732,16 +54631,16 @@
         <v>102</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="CF240" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="CH240" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="CF240" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="CH240" s="1" t="s">
-        <v>2939</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -54764,7 +54663,7 @@
         <v>1419</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>93</v>
@@ -54776,22 +54675,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="Q241" s="3">
         <v>17726</v>
@@ -54827,7 +54726,7 @@
         <v>43312</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>243</v>
@@ -54878,7 +54777,7 @@
         <v>102</v>
       </c>
       <c r="AZ241" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BB241" s="1">
         <v>0</v>
@@ -54887,10 +54786,10 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -54899,7 +54798,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -54908,7 +54807,7 @@
         <v>0</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>123</v>
@@ -54917,16 +54816,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="CF241" s="1" t="s">
         <v>891</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>129</v>
@@ -54949,7 +54848,7 @@
         <v>1419</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>93</v>
@@ -54961,22 +54860,22 @@
         <v>95</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="Q242" s="3">
         <v>17041</v>
@@ -55006,13 +54905,13 @@
         <v>42735</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>2117</v>
@@ -55063,7 +54962,7 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -55072,7 +54971,7 @@
         <v>106</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -55084,7 +54983,7 @@
         <v>111</v>
       </c>
       <c r="CA242" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CB242" s="1" t="s">
         <v>123</v>
@@ -55093,13 +54992,13 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55125,7 +55024,7 @@
         <v>1419</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>102</v>
@@ -55137,22 +55036,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="Q243" s="3">
         <v>30147</v>
@@ -55178,17 +55077,12 @@
       <c r="AA243" s="1">
         <v>0</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2659</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AF243" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>371</v>
@@ -55236,10 +55130,10 @@
         <v>0</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
@@ -55251,13 +55145,13 @@
         <v>103</v>
       </c>
       <c r="BS243" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BT243" s="3">
         <v>37124</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55266,7 +55160,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55275,16 +55169,16 @@
         <v>102</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CE243" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55307,7 +55201,7 @@
         <v>91</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>102</v>
@@ -55319,22 +55213,22 @@
         <v>95</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="Q244" s="3">
         <v>17821</v>
@@ -55370,7 +55264,7 @@
         <v>43388</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55421,25 +55315,25 @@
         <v>102</v>
       </c>
       <c r="AZ244" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="BB244" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC244" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD244" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="BE244" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="BF244" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="BB244" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC244" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD244" s="1" t="s">
+      <c r="BH244" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="BE244" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="BF244" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="BH244" s="1" t="s">
-        <v>2980</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55448,7 +55342,7 @@
         <v>106</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55457,7 +55351,7 @@
         <v>0</v>
       </c>
       <c r="CA244" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CB244" s="1" t="s">
         <v>123</v>
@@ -55466,16 +55360,16 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CF244" s="1" t="s">
         <v>488</v>
       </c>
       <c r="CH244" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="CI244" s="1" t="s">
         <v>129</v>
@@ -55516,16 +55410,16 @@
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55558,7 +55452,7 @@
         <v>43980</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -55612,10 +55506,10 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -55627,13 +55521,13 @@
         <v>1622</v>
       </c>
       <c r="BS245" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BT245" s="3">
         <v>35915</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -55657,7 +55551,7 @@
         <v>635</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>1816</v>
@@ -55695,22 +55589,22 @@
         <v>95</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -55746,7 +55640,7 @@
         <v>44135</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -55803,10 +55697,10 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -55815,7 +55709,7 @@
         <v>106</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -55824,7 +55718,7 @@
         <v>0</v>
       </c>
       <c r="CA246" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="CB246" s="1" t="s">
         <v>123</v>
@@ -55836,10 +55730,10 @@
         <v>1250</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>1816</v>
@@ -55883,16 +55777,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -55925,16 +55819,16 @@
         <v>43847</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AH247" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="AH247" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="AJ247" s="1" t="s">
         <v>110</v>
@@ -55976,7 +55870,7 @@
         <v>102</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -55985,10 +55879,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
@@ -56000,13 +55894,13 @@
         <v>118</v>
       </c>
       <c r="BS247" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BT247" s="3">
         <v>34808</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -56024,13 +55918,13 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>1816</v>
@@ -56047,10 +55941,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1225</v>
@@ -56074,16 +55968,16 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56137,7 +56031,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56167,7 +56061,7 @@
         <v>102</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BB248" s="1">
         <v>2</v>
@@ -56176,13 +56070,13 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56200,13 +56094,13 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56250,16 +56144,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56298,7 +56192,7 @@
         <v>44246</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56355,10 +56249,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56367,7 +56261,7 @@
         <v>106</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56391,13 +56285,13 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56441,16 +56335,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56486,7 +56380,7 @@
         <v>44267</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
@@ -56543,10 +56437,10 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -56558,13 +56452,13 @@
         <v>118</v>
       </c>
       <c r="BS250" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BT250" s="3">
         <v>35711</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -56588,7 +56482,7 @@
         <v>379</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56632,16 +56526,16 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56677,16 +56571,16 @@
         <v>44255</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="AH251" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ251" s="1" t="s">
         <v>110</v>
@@ -56734,16 +56628,16 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BE251" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BF251" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -56752,13 +56646,13 @@
         <v>229</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BT251" s="3">
         <v>2302</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -56782,13 +56676,13 @@
         <v>93</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>1792</v>
@@ -56832,16 +56726,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -56877,7 +56771,7 @@
         <v>44316</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -56934,10 +56828,10 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
@@ -56949,13 +56843,13 @@
         <v>229</v>
       </c>
       <c r="BS252" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BT252" s="3">
         <v>35108</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -56973,16 +56867,16 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>1911</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>129</v>
@@ -57023,16 +56917,16 @@
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57068,16 +56962,16 @@
         <v>44507</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="AH253" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AI253" s="1" t="s">
         <v>102</v>
@@ -57128,16 +57022,16 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57161,13 +57055,13 @@
         <v>93</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>1792</v>
@@ -57205,22 +57099,22 @@
         <v>95</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57253,7 +57147,7 @@
         <v>44701</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57301,7 +57195,7 @@
         <v>102</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BB254" s="1">
         <v>5</v>
@@ -57310,13 +57204,13 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BI254" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57331,13 +57225,13 @@
         <v>160</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BT254" s="3">
         <v>36825</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57352,7 +57246,7 @@
         <v>111</v>
       </c>
       <c r="CA254" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="CB254" s="1" t="s">
         <v>123</v>
@@ -57361,19 +57255,19 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CH254" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CI254" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CJ254" s="1" t="s">
         <v>129</v>
@@ -57405,22 +57299,22 @@
         <v>95</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57453,7 +57347,7 @@
         <v>44733</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
@@ -57510,10 +57404,10 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -57525,13 +57419,13 @@
         <v>229</v>
       </c>
       <c r="BS255" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BT255" s="3">
         <v>34412</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57552,13 +57446,13 @@
         <v>102</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>2261</v>
@@ -57596,22 +57490,22 @@
         <v>95</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57644,7 +57538,7 @@
         <v>44561</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
@@ -57701,7 +57595,7 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>117</v>
@@ -57710,13 +57604,13 @@
         <v>229</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BT256" s="3">
         <v>5480</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -57743,10 +57637,10 @@
         <v>459</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57790,16 +57684,16 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57835,7 +57729,7 @@
         <v>44788</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>107</v>
@@ -57895,10 +57789,10 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
@@ -57913,13 +57807,13 @@
         <v>160</v>
       </c>
       <c r="BS257" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BT257" s="3">
         <v>35259</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -57937,13 +57831,13 @@
         <v>102</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -57987,16 +57881,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58029,16 +57923,16 @@
         <v>44833</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AH258" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AI258" s="1" t="s">
         <v>102</v>
@@ -58089,16 +57983,16 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -58110,7 +58004,7 @@
         <v>111</v>
       </c>
       <c r="CA258" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="CB258" s="1" t="s">
         <v>123</v>
@@ -58119,13 +58013,13 @@
         <v>93</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>1792</v>
@@ -58169,16 +58063,16 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58214,16 +58108,16 @@
         <v>44895</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AH259" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AJ259" s="1" t="s">
         <v>110</v>
@@ -58268,10 +58162,10 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>117</v>
@@ -58280,13 +58174,13 @@
         <v>118</v>
       </c>
       <c r="BS259" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BT259" s="3">
         <v>34170</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58307,13 +58201,13 @@
         <v>93</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>1792</v>
@@ -58357,13 +58251,13 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58450,13 +58344,13 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
@@ -58465,7 +58359,7 @@
         <v>106</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58486,16 +58380,16 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="CF260" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="CH260" s="1" t="s">
         <v>3119</v>
-      </c>
-      <c r="CE260" s="1" t="s">
-        <v>3120</v>
-      </c>
-      <c r="CF260" s="1" t="s">
-        <v>3121</v>
-      </c>
-      <c r="CH260" s="1" t="s">
-        <v>3122</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>129</v>
@@ -58509,10 +58403,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1225</v>
@@ -58527,7 +58421,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1225</v>
@@ -58536,13 +58430,13 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58596,7 +58490,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58629,19 +58523,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -58659,16 +58553,16 @@
         <v>102</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>310</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -58682,10 +58576,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1225</v>
@@ -58700,7 +58594,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1225</v>
@@ -58709,13 +58603,13 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58766,7 +58660,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -58802,19 +58696,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -58841,10 +58735,10 @@
         <v>1057</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>129</v>
@@ -58858,10 +58752,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1225</v>
@@ -58876,7 +58770,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1225</v>
@@ -58885,13 +58779,13 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58942,7 +58836,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -58978,19 +58872,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -59011,16 +58905,16 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="CF263" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="CH263" s="1" t="s">
         <v>3150</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3151</v>
-      </c>
-      <c r="CF263" s="1" t="s">
-        <v>3152</v>
-      </c>
-      <c r="CH263" s="1" t="s">
-        <v>3153</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -59034,10 +58928,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1225</v>
@@ -59052,7 +58946,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1225</v>
@@ -59061,13 +58955,13 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59154,19 +59048,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59187,7 +59081,7 @@
         <v>102</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>584</v>
@@ -59196,7 +59090,7 @@
         <v>488</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59210,10 +59104,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1225</v>
@@ -59228,7 +59122,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1225</v>
@@ -59237,13 +59131,13 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59297,7 +59191,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59333,19 +59227,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59369,13 +59263,13 @@
         <v>472</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59389,10 +59283,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1225</v>
@@ -59407,7 +59301,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1225</v>
@@ -59416,13 +59310,13 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59509,19 +59403,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59542,16 +59436,16 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>595</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>129</v>
@@ -59565,10 +59459,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1225</v>
@@ -59583,7 +59477,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1225</v>
@@ -59592,13 +59486,13 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59652,7 +59546,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59688,19 +59582,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -59721,16 +59615,16 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>987</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>129</v>
@@ -59744,10 +59638,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1225</v>
@@ -59762,7 +59656,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1225</v>
@@ -59771,13 +59665,13 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59831,7 +59725,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59867,19 +59761,19 @@
         <v>23</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>121</v>
@@ -59903,13 +59797,13 @@
         <v>973</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>129</v>
@@ -59923,10 +59817,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1225</v>
@@ -59941,7 +59835,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1225</v>
@@ -59950,10 +59844,10 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -59995,7 +59889,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60031,7 +59925,7 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
@@ -60055,7 +59949,7 @@
         <v>102</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>129</v>
@@ -60072,10 +59966,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1225</v>
@@ -60090,7 +59984,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1225</v>
@@ -60099,13 +59993,13 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>2204</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60156,7 +60050,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60189,19 +60083,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60219,16 +60113,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3209</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3211</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3212</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60242,10 +60136,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1225</v>
@@ -60260,7 +60154,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1225</v>
@@ -60269,13 +60163,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60359,19 +60253,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>121</v>
@@ -60392,16 +60286,16 @@
         <v>2140</v>
       </c>
       <c r="CD271" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="CF271" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="CH271" s="1" t="s">
         <v>3218</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="CF271" s="1" t="s">
-        <v>3220</v>
-      </c>
-      <c r="CH271" s="1" t="s">
-        <v>3221</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>129</v>
@@ -60415,10 +60309,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1225</v>
@@ -60433,7 +60327,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1225</v>
@@ -60442,13 +60336,13 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60502,7 +60396,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60538,19 +60432,19 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>121</v>
@@ -60571,16 +60465,16 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="CF272" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH272" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>129</v>
@@ -60594,10 +60488,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1225</v>
@@ -60612,7 +60506,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1225</v>
@@ -60621,10 +60515,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60666,7 +60560,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60702,7 +60596,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
@@ -60726,7 +60620,7 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>129</v>
@@ -60743,10 +60637,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1225</v>
@@ -60761,7 +60655,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1225</v>
@@ -60770,10 +60664,10 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60815,7 +60709,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -60851,7 +60745,7 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>117</v>
@@ -60875,7 +60769,7 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>129</v>
@@ -60892,10 +60786,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1225</v>
@@ -60910,7 +60804,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1225</v>
@@ -60919,13 +60813,13 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61018,7 +60912,7 @@
         <v>23</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>114</v>
@@ -61045,10 +60939,10 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CF275" s="1" t="s">
         <v>216</v>
@@ -61068,10 +60962,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1225</v>
@@ -61086,7 +60980,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1225</v>
@@ -61095,10 +60989,10 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61140,7 +61034,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61176,7 +61070,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
@@ -61185,7 +61079,7 @@
         <v>121</v>
       </c>
       <c r="BX276" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BY276" s="1">
         <v>0</v>
@@ -61203,7 +61097,7 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>129</v>
@@ -61220,10 +61114,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1225</v>
@@ -61238,7 +61132,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1225</v>
@@ -61247,13 +61141,13 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61304,7 +61198,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61340,19 +61234,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61373,16 +61267,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61396,10 +61290,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1225</v>
@@ -61414,7 +61308,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1225</v>
@@ -61423,13 +61317,13 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61459,7 +61353,7 @@
         <v>107</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH278" s="1" t="s">
         <v>371</v>
@@ -61474,7 +61368,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61504,19 +61398,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -61534,16 +61428,16 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>310</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -61557,10 +61451,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1225</v>
@@ -61575,7 +61469,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1225</v>
@@ -61584,13 +61478,13 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -61674,19 +61568,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -61704,16 +61598,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -61727,10 +61621,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1225</v>
@@ -61745,7 +61639,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1225</v>
@@ -61754,13 +61648,13 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -61847,19 +61741,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -61877,16 +61771,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3283</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3286</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -61900,10 +61794,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1225</v>
@@ -61918,7 +61812,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1225</v>
@@ -61927,13 +61821,13 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -61942,7 +61836,7 @@
         <v>102</v>
       </c>
       <c r="Q281" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="R281" s="1" t="s">
         <v>134</v>
@@ -61984,7 +61878,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62017,19 +61911,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -62047,16 +61941,16 @@
         <v>102</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3294</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3297</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -62070,10 +61964,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1225</v>
@@ -62088,7 +61982,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1225</v>
@@ -62097,13 +61991,13 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62157,7 +62051,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62193,19 +62087,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62232,10 +62126,10 @@
         <v>1464</v>
       </c>
       <c r="CF282" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="CH282" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62249,10 +62143,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1225</v>
@@ -62267,7 +62161,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1225</v>
@@ -62276,13 +62170,13 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62336,7 +62230,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62372,19 +62266,19 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU283" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BV283" s="1" t="s">
         <v>121</v>
@@ -62405,16 +62299,16 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="CF283" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="CH283" s="1" t="s">
         <v>3312</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="CF283" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="CH283" s="1" t="s">
-        <v>3315</v>
       </c>
       <c r="CI283" s="1" t="s">
         <v>129</v>
@@ -62428,10 +62322,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1225</v>
@@ -62446,7 +62340,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1225</v>
@@ -62455,13 +62349,13 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -62515,7 +62409,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62551,19 +62445,19 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -62584,16 +62478,16 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CE284" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CF284" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CH284" s="1" t="s">
         <v>3321</v>
-      </c>
-      <c r="CE284" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="CF284" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="CH284" s="1" t="s">
-        <v>3324</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -62607,10 +62501,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1225</v>
@@ -62625,7 +62519,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1225</v>
@@ -62634,13 +62528,13 @@
         <v>92</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -62694,7 +62588,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -62730,19 +62624,19 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BG285" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU285" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BV285" s="1" t="s">
         <v>121</v>
@@ -62763,16 +62657,16 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="CE285" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="CF285" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="CH285" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CI285" s="1" t="s">
         <v>129</v>
@@ -62782,6 +62676,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ285" xr:uid="{91253F94-2422-42EA-825A-AE6AB80567DF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>